--- a/Respon Kuesioner Dampak AI Terhadap Mahasiswa SI.xlsx
+++ b/Respon Kuesioner Dampak AI Terhadap Mahasiswa SI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghulam\Tugas Kuliah\Etika TI\Dataset paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2C628-5030-4BB4-951B-BB3A64F45EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CF0512-780C-461D-81E1-33841410B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Angkatan</t>
   </si>
   <si>
     <t>Pernahkah kamu menggunakan AI generatif</t>
@@ -99,201 +93,6 @@
   </si>
   <si>
     <t>Saya bisa menjadi terlalu bergantung pada teknologi AI generatif</t>
-  </si>
-  <si>
-    <t>Nur Ghulam Musthafa Al Kautsar</t>
-  </si>
-  <si>
-    <t>Nischaverta</t>
-  </si>
-  <si>
-    <t>Ahmad Hilmi Dwi Setiawan</t>
-  </si>
-  <si>
-    <t>Aufaa Hafizhah Brarida</t>
-  </si>
-  <si>
-    <t>Dafa Fawwaz Alfarisi</t>
-  </si>
-  <si>
-    <t>Viqi Alvianto</t>
-  </si>
-  <si>
-    <t>Muhammad Alarik Daviarsyah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krisna Setia Himawhan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanes Rendy Wichaksono </t>
-  </si>
-  <si>
-    <t>Zaizafun Naura</t>
-  </si>
-  <si>
-    <t>Khalid Wildan Lazuardi</t>
-  </si>
-  <si>
-    <t>Bryan Michael Kurniawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad Nabil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arjuna Ahmad Dewangga Aljabbar </t>
-  </si>
-  <si>
-    <t>Muhammad Robikhul Zaki Zain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fajhri Ramadhan A. </t>
-  </si>
-  <si>
-    <t>Dovy Adeeb Farizky</t>
-  </si>
-  <si>
-    <t>Dicky Febri Primadhani</t>
-  </si>
-  <si>
-    <t>Tommy Gunawan</t>
-  </si>
-  <si>
-    <t>Kautzar Randra Noor Khasyyatullah</t>
-  </si>
-  <si>
-    <t>Alif Faturrohman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia Naufal Abiyyu Tsaqif </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghiar Ghoniyyu Atha Akbar </t>
-  </si>
-  <si>
-    <t>Agung Dwi Oktavian</t>
-  </si>
-  <si>
-    <t>Yeremia Maydinata Narana</t>
-  </si>
-  <si>
-    <t>Yanuar Audrey Sulistiyo</t>
-  </si>
-  <si>
-    <t>Luthfi Rihadatul Fajri</t>
-  </si>
-  <si>
-    <t>Muhammad Kevin Checa Satrio</t>
-  </si>
-  <si>
-    <t>Dzaky Purnomo Rifa'i</t>
-  </si>
-  <si>
-    <t>Darrell Valentino</t>
-  </si>
-  <si>
-    <t>Muhammad Ryan Rajata</t>
-  </si>
-  <si>
-    <t>Muhammad Rafi Widya Danendra</t>
-  </si>
-  <si>
-    <t>Frans Nicklaus Gusyanto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Viggo Fudail </t>
-  </si>
-  <si>
-    <t>Darrell Athaya Refaldi</t>
-  </si>
-  <si>
-    <t>Viera Tito Virgiawan</t>
-  </si>
-  <si>
-    <t>Marcello Ezra Andilolo Lubis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Rafli Krishnadanu Putra Wardana </t>
-  </si>
-  <si>
-    <t>Achmad Faiz</t>
-  </si>
-  <si>
-    <t>Fernandio Farrel Putra Susilo</t>
-  </si>
-  <si>
-    <t>Muhammad Iqbal Baiduri Yamani</t>
-  </si>
-  <si>
-    <t>Farhan Adika Suwardana</t>
-  </si>
-  <si>
-    <t>Ahmad Fadhino Tegar Permana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athaalla Rayya Genaro Iswandoko </t>
-  </si>
-  <si>
-    <t>Febrian Abdan Husnan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezra Bimantara Emantoko Putra </t>
-  </si>
-  <si>
-    <t>Muhammad Shalahuddin Arif Laksono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mochammad Afandi Wirawan </t>
-  </si>
-  <si>
-    <t>Zikrul Khalis</t>
-  </si>
-  <si>
-    <t>Mohammad Affan Shofi</t>
-  </si>
-  <si>
-    <t>Alexander Satryo Pinandhito Yudho Pratomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkaan Hilmi Suharsoyo </t>
-  </si>
-  <si>
-    <t>Christhoper Carlos Pangaribuan</t>
-  </si>
-  <si>
-    <t>Muhammad Alvin Fairuz Tsany</t>
-  </si>
-  <si>
-    <t>Ferdiansyah Yusuf Muhammad</t>
-  </si>
-  <si>
-    <t>Rahmat Ramadhan Permana</t>
-  </si>
-  <si>
-    <t>Anas Ghifari Kemaputra</t>
-  </si>
-  <si>
-    <t>Ryan Adi Putra Pratama</t>
-  </si>
-  <si>
-    <t>Achmad Fahmi Ainur Ridho</t>
-  </si>
-  <si>
-    <t>Muhammad Rafi Novyansyah</t>
-  </si>
-  <si>
-    <t>Keysha Alivanno Pradipta Renjiro</t>
-  </si>
-  <si>
-    <t>Arayzi Rayyansyah</t>
-  </si>
-  <si>
-    <t>Akbar Daniswara Cahya Buana</t>
-  </si>
-  <si>
-    <t>Aryasatya Widyatna</t>
-  </si>
-  <si>
-    <t>Arjuna Putra Kharisma</t>
   </si>
 </sst>
 </file>
@@ -567,20 +366,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="A1:V65"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="18.88671875" customWidth="1"/>
+    <col min="2" max="26" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,10 +404,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -641,25 +440,19 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45432.227575896919</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
@@ -698,45 +491,39 @@
         <v>4</v>
       </c>
       <c r="Q2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" s="3">
         <v>5</v>
       </c>
-      <c r="U2" s="3">
-        <v>4</v>
-      </c>
-      <c r="V2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45433.168272850075</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
         <v>4</v>
@@ -754,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="3">
         <v>4</v>
@@ -777,22 +564,16 @@
       <c r="T3" s="3">
         <v>4</v>
       </c>
-      <c r="U3" s="3">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45433.172505172624</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
@@ -801,13 +582,13 @@
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
         <v>5</v>
@@ -816,78 +597,72 @@
         <v>5</v>
       </c>
       <c r="K4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="3">
         <v>5</v>
       </c>
       <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="3">
-        <v>5</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3</v>
-      </c>
       <c r="Q4" s="3">
         <v>4</v>
       </c>
       <c r="R4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" s="3">
-        <v>4</v>
-      </c>
-      <c r="U4" s="3">
-        <v>5</v>
-      </c>
-      <c r="V4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45433.183262213555</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -896,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="O5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="3">
         <v>4</v>
@@ -913,25 +688,19 @@
       <c r="T5" s="3">
         <v>5</v>
       </c>
-      <c r="U5" s="3">
-        <v>4</v>
-      </c>
-      <c r="V5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45433.185536783349</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -943,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
         <v>4</v>
@@ -967,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="P6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="R6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="3">
         <v>4</v>
@@ -981,25 +750,19 @@
       <c r="T6" s="3">
         <v>4</v>
       </c>
-      <c r="U6" s="3">
-        <v>4</v>
-      </c>
-      <c r="V6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45433.209534138543</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
@@ -1008,66 +771,60 @@
         <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="3">
         <v>4</v>
       </c>
       <c r="Q7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" s="3">
         <v>4</v>
       </c>
       <c r="S7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" s="3">
-        <v>4</v>
-      </c>
-      <c r="U7" s="3">
-        <v>4</v>
-      </c>
-      <c r="V7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45433.225309070534</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
@@ -1082,152 +839,140 @@
         <v>4</v>
       </c>
       <c r="I8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>4</v>
       </c>
       <c r="O8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45433.282109703192</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" s="3">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45433.294123166947</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>3</v>
@@ -1236,42 +981,36 @@
         <v>4</v>
       </c>
       <c r="O10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P10" s="3">
         <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" s="3">
         <v>4</v>
       </c>
       <c r="T10" s="3">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45433.374377020227</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -1280,28 +1019,28 @@
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
         <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <v>3</v>
       </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -1310,10 +1049,10 @@
         <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" s="3">
         <v>5</v>
@@ -1321,64 +1060,58 @@
       <c r="T11" s="3">
         <v>5</v>
       </c>
-      <c r="U11" s="3">
-        <v>5</v>
-      </c>
-      <c r="V11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45433.418692621053</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>3</v>
       </c>
       <c r="Q12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" s="3">
         <v>3</v>
@@ -1389,25 +1122,19 @@
       <c r="T12" s="3">
         <v>3</v>
       </c>
-      <c r="U12" s="3">
-        <v>3</v>
-      </c>
-      <c r="V12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45433.433936587928</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
@@ -1419,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
@@ -1431,87 +1158,81 @@
         <v>4</v>
       </c>
       <c r="L13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" s="3">
-        <v>4</v>
-      </c>
-      <c r="U13" s="3">
-        <v>4</v>
-      </c>
-      <c r="V13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45433.468527202662</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
       </c>
       <c r="N14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>4</v>
@@ -1520,33 +1241,27 @@
         <v>4</v>
       </c>
       <c r="S14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>3</v>
-      </c>
-      <c r="V14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45433.4881306346</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
@@ -1555,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>3</v>
@@ -1567,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>4</v>
@@ -1582,54 +1297,48 @@
         <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>4</v>
       </c>
       <c r="S15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" s="3">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45433.507627494553</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="3">
         <v>4</v>
@@ -1638,45 +1347,39 @@
         <v>4</v>
       </c>
       <c r="M16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16" s="3">
-        <v>2</v>
-      </c>
-      <c r="U16" s="3">
-        <v>2</v>
-      </c>
-      <c r="V16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45433.533029455095</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -1685,96 +1388,90 @@
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
         <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="3">
         <v>4</v>
       </c>
       <c r="M17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3">
         <v>4</v>
       </c>
       <c r="O17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
       </c>
       <c r="Q17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17" s="3">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45433.580277288369</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" s="3">
         <v>3</v>
@@ -1789,30 +1486,24 @@
         <v>5</v>
       </c>
       <c r="R18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45433.670174541621</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -1821,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
         <v>5</v>
@@ -1851,51 +1542,45 @@
         <v>5</v>
       </c>
       <c r="P19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="3">
         <v>3</v>
       </c>
       <c r="S19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" s="3">
-        <v>3</v>
-      </c>
-      <c r="U19" s="3">
-        <v>3</v>
-      </c>
-      <c r="V19" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45433.742724901756</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
@@ -1910,13 +1595,13 @@
         <v>4</v>
       </c>
       <c r="M20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="3">
         <v>4</v>
       </c>
       <c r="O20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>4</v>
@@ -1925,48 +1610,42 @@
         <v>4</v>
       </c>
       <c r="R20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20" s="3">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45433.744086055165</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
       </c>
       <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
       </c>
       <c r="H21" s="3">
         <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
         <v>2</v>
@@ -1975,48 +1654,42 @@
         <v>3</v>
       </c>
       <c r="L21" s="3">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>2</v>
       </c>
-      <c r="M21" s="3">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3">
         <v>4</v>
       </c>
       <c r="R21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" s="3">
         <v>3</v>
       </c>
-      <c r="U21" s="3">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45433.791778785519</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -2025,37 +1698,37 @@
         <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
         <v>4</v>
       </c>
       <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>2</v>
       </c>
-      <c r="K22" s="3">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4</v>
-      </c>
       <c r="O22" s="3">
         <v>4</v>
       </c>
       <c r="P22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>4</v>
@@ -2064,27 +1737,21 @@
         <v>4</v>
       </c>
       <c r="S22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22" s="3">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45433.80031716032</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -2093,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="3">
         <v>5</v>
@@ -2108,19 +1775,19 @@
         <v>5</v>
       </c>
       <c r="K23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P23" s="3">
         <v>4</v>
@@ -2129,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="R23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" s="3">
         <v>5</v>
@@ -2137,25 +1804,19 @@
       <c r="T23" s="3">
         <v>5</v>
       </c>
-      <c r="U23" s="3">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45433.8521442809</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -2164,16 +1825,16 @@
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>5</v>
@@ -2205,25 +1866,19 @@
       <c r="T24" s="3">
         <v>5</v>
       </c>
-      <c r="U24" s="3">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45433.863619156567</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2238,19 +1893,19 @@
         <v>3</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" s="3">
         <v>5</v>
       </c>
       <c r="M25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" s="3">
         <v>5</v>
@@ -2259,13 +1914,13 @@
         <v>5</v>
       </c>
       <c r="P25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="3">
         <v>5</v>
       </c>
       <c r="R25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" s="3">
         <v>5</v>
@@ -2273,22 +1928,16 @@
       <c r="T25" s="3">
         <v>5</v>
       </c>
-      <c r="U25" s="3">
-        <v>5</v>
-      </c>
-      <c r="V25" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45433.882578426492</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -2297,34 +1946,34 @@
         <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" s="3">
         <v>5</v>
       </c>
       <c r="K26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" s="3">
         <v>4</v>
       </c>
       <c r="N26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P26" s="3">
         <v>5</v>
@@ -2333,30 +1982,24 @@
         <v>5</v>
       </c>
       <c r="R26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" s="3">
         <v>5</v>
       </c>
       <c r="T26" s="3">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45434.176628023059</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>23</v>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -2395,36 +2038,30 @@
         <v>5</v>
       </c>
       <c r="P27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="3">
         <v>5</v>
       </c>
       <c r="R27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" s="3">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45434.180172432796</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>23</v>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -2439,13 +2076,13 @@
         <v>5</v>
       </c>
       <c r="H28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3">
         <v>5</v>
       </c>
       <c r="J28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" s="3">
         <v>5</v>
@@ -2466,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="Q28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" s="3">
         <v>4</v>
@@ -2477,46 +2114,40 @@
       <c r="T28" s="3">
         <v>4</v>
       </c>
-      <c r="U28" s="3">
-        <v>4</v>
-      </c>
-      <c r="V28" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45434.196968479242</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>5</v>
@@ -2525,87 +2156,81 @@
         <v>4</v>
       </c>
       <c r="N29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>4</v>
       </c>
       <c r="P29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>4</v>
       </c>
       <c r="R29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29" s="3">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>3</v>
-      </c>
-      <c r="V29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45434.249946728945</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>23</v>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3">
         <v>5</v>
       </c>
       <c r="G30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="3">
         <v>5</v>
       </c>
       <c r="R30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" s="3">
         <v>5</v>
@@ -2613,22 +2238,16 @@
       <c r="T30" s="3">
         <v>5</v>
       </c>
-      <c r="U30" s="3">
-        <v>5</v>
-      </c>
-      <c r="V30" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45434.322884004097</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
@@ -2637,13 +2256,13 @@
         <v>4</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3">
         <v>4</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="3">
         <v>4</v>
@@ -2658,13 +2277,13 @@
         <v>4</v>
       </c>
       <c r="M31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3">
         <v>4</v>
       </c>
       <c r="O31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P31" s="3">
         <v>4</v>
@@ -2673,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="R31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" s="3">
         <v>5</v>
@@ -2681,25 +2300,19 @@
       <c r="T31" s="3">
         <v>5</v>
       </c>
-      <c r="U31" s="3">
-        <v>5</v>
-      </c>
-      <c r="V31" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45434.373078275057</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>4</v>
@@ -2749,25 +2362,19 @@
       <c r="T32" s="3">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45434.404168615052</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
       </c>
       <c r="D33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>4</v>
@@ -2779,25 +2386,25 @@
         <v>4</v>
       </c>
       <c r="H33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" s="3">
         <v>4</v>
       </c>
       <c r="J33" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" s="3">
         <v>4</v>
@@ -2809,33 +2416,27 @@
         <v>4</v>
       </c>
       <c r="R33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T33" s="3">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45434.434697862729</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>23</v>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5</v>
       </c>
       <c r="D34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
         <v>5</v>
@@ -2847,60 +2448,54 @@
         <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" s="3">
         <v>3</v>
       </c>
       <c r="N34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34" s="3">
         <v>3</v>
       </c>
       <c r="Q34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" s="3">
         <v>4</v>
       </c>
-      <c r="U34" s="3">
-        <v>4</v>
-      </c>
-      <c r="V34" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45434.459320662943</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
@@ -2939,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="P35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="3">
         <v>4</v>
       </c>
       <c r="R35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S35" s="3">
         <v>4</v>
@@ -2953,22 +2548,16 @@
       <c r="T35" s="3">
         <v>4</v>
       </c>
-      <c r="U35" s="3">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45434.622215477888</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
@@ -2980,16 +2569,16 @@
         <v>4</v>
       </c>
       <c r="G36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36" s="3">
         <v>4</v>
@@ -3013,33 +2602,27 @@
         <v>4</v>
       </c>
       <c r="R36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36" s="3">
-        <v>3</v>
-      </c>
-      <c r="U36" s="3">
-        <v>3</v>
-      </c>
-      <c r="V36" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45434.701542200128</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
@@ -3078,33 +2661,27 @@
         <v>4</v>
       </c>
       <c r="Q37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R37" s="3">
         <v>4</v>
       </c>
       <c r="S37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" s="3">
-        <v>4</v>
-      </c>
-      <c r="U37" s="3">
-        <v>4</v>
-      </c>
-      <c r="V37" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45434.70285755879</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>23</v>
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -3119,37 +2696,37 @@
         <v>5</v>
       </c>
       <c r="H38" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38" s="3">
         <v>5</v>
       </c>
       <c r="J38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38" s="3">
         <v>4</v>
       </c>
       <c r="N38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S38" s="3">
         <v>4</v>
@@ -3157,25 +2734,19 @@
       <c r="T38" s="3">
         <v>4</v>
       </c>
-      <c r="U38" s="3">
-        <v>4</v>
-      </c>
-      <c r="V38" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45434.707029643119</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3">
         <v>4</v>
@@ -3187,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="H39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" s="3">
         <v>5</v>
@@ -3217,30 +2788,24 @@
         <v>5</v>
       </c>
       <c r="R39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" s="3">
-        <v>3</v>
-      </c>
-      <c r="U39" s="3">
-        <v>3</v>
-      </c>
-      <c r="V39" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45434.749303861296</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>23</v>
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
       </c>
       <c r="D40" s="3">
         <v>5</v>
@@ -3252,16 +2817,16 @@
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" s="3">
         <v>4</v>
@@ -3270,10 +2835,10 @@
         <v>5</v>
       </c>
       <c r="M40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O40" s="3">
         <v>5</v>
@@ -3288,27 +2853,21 @@
         <v>3</v>
       </c>
       <c r="S40" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" s="3">
-        <v>3</v>
-      </c>
-      <c r="U40" s="3">
-        <v>3</v>
-      </c>
-      <c r="V40" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45434.797315982854</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>23</v>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4</v>
       </c>
       <c r="D41" s="3">
         <v>4</v>
@@ -3323,13 +2882,13 @@
         <v>4</v>
       </c>
       <c r="H41" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" s="3">
         <v>4</v>
       </c>
       <c r="J41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>4</v>
@@ -3361,28 +2920,22 @@
       <c r="T41" s="3">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45434.815568705235</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>23</v>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5</v>
       </c>
       <c r="D42" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -3391,13 +2944,13 @@
         <v>4</v>
       </c>
       <c r="H42" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" s="3">
         <v>4</v>
       </c>
       <c r="J42" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>4</v>
@@ -3418,33 +2971,27 @@
         <v>4</v>
       </c>
       <c r="Q42" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T42" s="3">
-        <v>3</v>
-      </c>
-      <c r="U42" s="3">
-        <v>3</v>
-      </c>
-      <c r="V42" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45434.820367083943</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -3456,16 +3003,16 @@
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I43" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43" s="3">
         <v>5</v>
@@ -3489,30 +3036,24 @@
         <v>5</v>
       </c>
       <c r="R43" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" s="3">
-        <v>3</v>
-      </c>
-      <c r="U43" s="3">
-        <v>3</v>
-      </c>
-      <c r="V43" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45434.826268131335</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>23</v>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
@@ -3521,66 +3062,60 @@
         <v>3</v>
       </c>
       <c r="F44" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>4</v>
       </c>
       <c r="P44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>3</v>
       </c>
       <c r="S44" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" s="3">
-        <v>3</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3</v>
-      </c>
-      <c r="V44" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45434.866232979926</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
       </c>
       <c r="D45" s="3">
         <v>5</v>
@@ -3595,60 +3130,54 @@
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3">
         <v>5</v>
       </c>
       <c r="J45" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K45" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M45" s="3">
         <v>4</v>
       </c>
       <c r="N45" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>4</v>
       </c>
       <c r="P45" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>4</v>
       </c>
       <c r="R45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>4</v>
       </c>
       <c r="T45" s="3">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45434.895994778628</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>23</v>
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
       </c>
       <c r="D46" s="3">
         <v>5</v>
@@ -3657,31 +3186,31 @@
         <v>5</v>
       </c>
       <c r="F46" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K46" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L46" s="3">
         <v>5</v>
       </c>
       <c r="M46" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O46" s="3">
         <v>3</v>
@@ -3690,33 +3219,27 @@
         <v>3</v>
       </c>
       <c r="Q46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>3</v>
       </c>
       <c r="S46" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" s="3">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3">
-        <v>3</v>
-      </c>
-      <c r="V46" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45435.189176776948</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>23</v>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -3731,25 +3254,25 @@
         <v>4</v>
       </c>
       <c r="H47" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47" s="3">
         <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>4</v>
       </c>
       <c r="L47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>4</v>
       </c>
       <c r="N47" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>4</v>
@@ -3761,33 +3284,27 @@
         <v>4</v>
       </c>
       <c r="R47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T47" s="3">
-        <v>3</v>
-      </c>
-      <c r="U47" s="3">
-        <v>3</v>
-      </c>
-      <c r="V47" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45435.214341969928</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>23</v>
+      <c r="B48" s="3">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>4</v>
@@ -3799,25 +3316,25 @@
         <v>4</v>
       </c>
       <c r="H48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48" s="3">
         <v>4</v>
       </c>
       <c r="J48" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>4</v>
       </c>
       <c r="L48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>4</v>
       </c>
       <c r="N48" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>4</v>
@@ -3829,30 +3346,24 @@
         <v>4</v>
       </c>
       <c r="R48" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48" s="3">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3">
-        <v>3</v>
-      </c>
-      <c r="V48" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45435.254558379398</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>23</v>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
@@ -3867,13 +3378,13 @@
         <v>4</v>
       </c>
       <c r="H49" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" s="3">
         <v>4</v>
       </c>
       <c r="J49" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>4</v>
@@ -3897,51 +3408,45 @@
         <v>4</v>
       </c>
       <c r="R49" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S49" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T49" s="3">
-        <v>3</v>
-      </c>
-      <c r="U49" s="3">
-        <v>3</v>
-      </c>
-      <c r="V49" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45435.263888850175</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>23</v>
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5</v>
       </c>
       <c r="D50" s="3">
         <v>5</v>
       </c>
       <c r="E50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J50" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50" s="3">
         <v>5</v>
@@ -3959,7 +3464,7 @@
         <v>5</v>
       </c>
       <c r="P50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q50" s="3">
         <v>5</v>
@@ -3968,27 +3473,21 @@
         <v>4</v>
       </c>
       <c r="S50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" s="3">
-        <v>4</v>
-      </c>
-      <c r="U50" s="3">
-        <v>4</v>
-      </c>
-      <c r="V50" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45435.280485734555</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>23</v>
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
       </c>
       <c r="D51" s="3">
         <v>5</v>
@@ -4000,19 +3499,19 @@
         <v>5</v>
       </c>
       <c r="G51" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I51" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K51" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51" s="3">
         <v>5</v>
@@ -4021,42 +3520,36 @@
         <v>4</v>
       </c>
       <c r="N51" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P51" s="3">
         <v>4</v>
       </c>
       <c r="Q51" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T51" s="3">
-        <v>3</v>
-      </c>
-      <c r="U51" s="3">
-        <v>3</v>
-      </c>
-      <c r="V51" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45435.338869289269</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>23</v>
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
       </c>
       <c r="D52" s="3">
         <v>5</v>
@@ -4068,16 +3561,16 @@
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>5</v>
@@ -4086,48 +3579,42 @@
         <v>5</v>
       </c>
       <c r="M52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O52" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>4</v>
       </c>
       <c r="Q52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45435.356724156911</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>23</v>
+      <c r="B53" s="3">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4</v>
       </c>
       <c r="D53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" s="3">
         <v>4</v>
@@ -4139,60 +3626,54 @@
         <v>4</v>
       </c>
       <c r="H53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" s="3">
         <v>4</v>
       </c>
       <c r="J53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" s="3">
         <v>4</v>
       </c>
       <c r="L53" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M53" s="3">
         <v>4</v>
       </c>
       <c r="N53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O53" s="3">
         <v>4</v>
       </c>
       <c r="P53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S53" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" s="3">
         <v>4</v>
       </c>
-      <c r="U53" s="3">
-        <v>3</v>
-      </c>
-      <c r="V53" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45435.386875429263</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>23</v>
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
@@ -4207,25 +3688,25 @@
         <v>4</v>
       </c>
       <c r="H54" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54" s="3">
         <v>4</v>
       </c>
       <c r="J54" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K54" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L54" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O54" s="3">
         <v>4</v>
@@ -4237,51 +3718,45 @@
         <v>4</v>
       </c>
       <c r="R54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54" s="3">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3">
-        <v>3</v>
-      </c>
-      <c r="V54" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45435.425974244456</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>23</v>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5</v>
       </c>
       <c r="D55" s="3">
         <v>5</v>
       </c>
       <c r="E55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" s="3">
         <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55" s="3">
         <v>5</v>
       </c>
       <c r="J55" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K55" s="3">
         <v>5</v>
@@ -4293,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="N55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O55" s="3">
         <v>5</v>
@@ -4305,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="R55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" s="3">
         <v>5</v>
@@ -4313,25 +3788,19 @@
       <c r="T55" s="3">
         <v>5</v>
       </c>
-      <c r="U55" s="3">
-        <v>5</v>
-      </c>
-      <c r="V55" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45435.557693581068</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>23</v>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4</v>
       </c>
       <c r="D56" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="3">
         <v>4</v>
@@ -4346,10 +3815,10 @@
         <v>4</v>
       </c>
       <c r="I56" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K56" s="3">
         <v>5</v>
@@ -4370,54 +3839,48 @@
         <v>5</v>
       </c>
       <c r="Q56" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T56" s="3">
-        <v>3</v>
-      </c>
-      <c r="U56" s="3">
-        <v>3</v>
-      </c>
-      <c r="V56" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45435.600360795361</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>23</v>
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5</v>
       </c>
       <c r="D57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="3">
         <v>4</v>
       </c>
       <c r="H57" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>5</v>
@@ -4429,42 +3892,36 @@
         <v>5</v>
       </c>
       <c r="N57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>5</v>
       </c>
       <c r="P57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T57" s="3">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3">
-        <v>3</v>
-      </c>
-      <c r="V57" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45435.601540710035</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>23</v>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
       </c>
       <c r="D58" s="3">
         <v>4</v>
@@ -4476,31 +3933,31 @@
         <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K58" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>4</v>
       </c>
       <c r="N58" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O58" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>4</v>
@@ -4512,30 +3969,24 @@
         <v>4</v>
       </c>
       <c r="S58" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" s="3">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45435.618421573243</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>23</v>
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4</v>
       </c>
       <c r="D59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>4</v>
@@ -4547,25 +3998,25 @@
         <v>4</v>
       </c>
       <c r="H59" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>5</v>
       </c>
       <c r="L59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>4</v>
@@ -4574,10 +4025,10 @@
         <v>4</v>
       </c>
       <c r="Q59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>5</v>
@@ -4585,22 +4036,16 @@
       <c r="T59" s="3">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45435.620403661313</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>23</v>
+      <c r="B60" s="3">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5</v>
       </c>
       <c r="D60" s="3">
         <v>5</v>
@@ -4615,13 +4060,13 @@
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I60" s="3">
         <v>5</v>
       </c>
       <c r="J60" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60" s="3">
         <v>5</v>
@@ -4642,39 +4087,33 @@
         <v>5</v>
       </c>
       <c r="Q60" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R60" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S60" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T60" s="3">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3">
-        <v>3</v>
-      </c>
-      <c r="V60" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45435.642929156114</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>23</v>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4</v>
       </c>
       <c r="D61" s="3">
         <v>4</v>
       </c>
       <c r="E61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="3">
         <v>4</v>
@@ -4683,25 +4122,25 @@
         <v>3</v>
       </c>
       <c r="H61" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" s="3">
         <v>4</v>
       </c>
       <c r="L61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" s="3">
         <v>4</v>
       </c>
       <c r="N61" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O61" s="3">
         <v>4</v>
@@ -4713,33 +4152,27 @@
         <v>4</v>
       </c>
       <c r="R61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T61" s="3">
-        <v>3</v>
-      </c>
-      <c r="U61" s="3">
-        <v>3</v>
-      </c>
-      <c r="V61" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45435.65939337013</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>23</v>
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
       </c>
       <c r="D62" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>4</v>
@@ -4751,13 +4184,13 @@
         <v>4</v>
       </c>
       <c r="H62" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62" s="3">
         <v>4</v>
       </c>
       <c r="J62" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>4</v>
@@ -4778,36 +4211,30 @@
         <v>4</v>
       </c>
       <c r="Q62" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R62" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S62" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62" s="3">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45435.762827043582</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>23</v>
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
       </c>
       <c r="D63" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="3">
         <v>4</v>
@@ -4822,10 +4249,10 @@
         <v>4</v>
       </c>
       <c r="I63" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J63" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" s="3">
         <v>5</v>
@@ -4846,36 +4273,30 @@
         <v>5</v>
       </c>
       <c r="Q63" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R63" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S63" s="3">
         <v>4</v>
       </c>
       <c r="T63" s="3">
-        <v>3</v>
-      </c>
-      <c r="U63" s="3">
-        <v>4</v>
-      </c>
-      <c r="V63" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45435.83747330746</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>23</v>
+      <c r="B64" s="3">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
       </c>
       <c r="D64" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="3">
         <v>4</v>
@@ -4887,13 +4308,13 @@
         <v>4</v>
       </c>
       <c r="H64" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J64" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K64" s="3">
         <v>5</v>
@@ -4917,33 +4338,27 @@
         <v>5</v>
       </c>
       <c r="R64" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S64" s="3">
         <v>5</v>
       </c>
       <c r="T64" s="3">
-        <v>4</v>
-      </c>
-      <c r="U64" s="3">
-        <v>5</v>
-      </c>
-      <c r="V64" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45435.843001210793</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>23</v>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>5</v>
       </c>
       <c r="D65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" s="3">
         <v>5</v>
@@ -4952,31 +4367,31 @@
         <v>5</v>
       </c>
       <c r="G65" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J65" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K65" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" s="3">
         <v>4</v>
       </c>
       <c r="N65" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P65" s="3">
         <v>4</v>
@@ -4985,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="R65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" s="3">
         <v>5</v>
@@ -4993,15 +4408,9 @@
       <c r="T65" s="3">
         <v>5</v>
       </c>
-      <c r="U65" s="3">
-        <v>5</v>
-      </c>
-      <c r="V65" s="3">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T65">
     <sortCondition ref="A2:A65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
